--- a/tut05/output/0501ME15.xlsx
+++ b/tut05/output/0501ME15.xlsx
@@ -553,19 +553,19 @@
         <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>5.818181818181818</v>
+        <v>5.82</v>
       </c>
       <c r="D6" t="n">
-        <v>6.361702127659575</v>
+        <v>6.36</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>6.913043478260869</v>
+        <v>6.91</v>
       </c>
       <c r="G6" t="n">
-        <v>6.304347826086956</v>
+        <v>6.3</v>
       </c>
       <c r="H6" t="n">
         <v>7.1</v>
@@ -615,25 +615,25 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>6.440860215053763</v>
+        <v>6.44</v>
       </c>
       <c r="D8" t="n">
-        <v>6.414285714285715</v>
+        <v>6.41</v>
       </c>
       <c r="E8" t="n">
-        <v>6.566137566137566</v>
+        <v>6.57</v>
       </c>
       <c r="F8" t="n">
-        <v>6.634042553191489</v>
+        <v>6.63</v>
       </c>
       <c r="G8" t="n">
-        <v>6.580071174377224</v>
+        <v>6.58</v>
       </c>
       <c r="H8" t="n">
-        <v>6.644859813084112</v>
+        <v>6.64</v>
       </c>
       <c r="I8" t="n">
-        <v>6.678670360110804</v>
+        <v>6.68</v>
       </c>
     </row>
   </sheetData>
